--- a/public/format/Quotation_Template.xlsx
+++ b/public/format/Quotation_Template.xlsx
@@ -424,7 +424,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,13 +565,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,104 +576,152 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1044,479 +1093,487 @@
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="26.33203125" style="2"/>
+    <col min="1" max="5" width="26.33203125" style="7"/>
+    <col min="6" max="6" width="26.33203125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="26.33203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="9" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="9" t="s">
+    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="14" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
+      <c r="F15" s="28"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="19" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="19" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="47" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="47" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="37" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="39" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="40" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1533,20 +1590,20 @@
       <c r="E77" s="41"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="39" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="39" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="39" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1565,109 +1622,110 @@
       <c r="E82" s="41"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="44" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="35"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
+      <c r="A89" s="46"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="39" t="s">
+      <c r="D90" s="48"/>
+      <c r="E90" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="F90" s="39"/>
+      <c r="F90" s="49"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F91" s="40"/>
+      <c r="F91" s="50"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="47" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="36"/>
+      <c r="A93" s="51"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E94" s="39" t="s">
+      <c r="E94" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F94" s="39"/>
+      <c r="F94" s="49"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="35"/>
+      <c r="A96" s="46"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="47" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="47" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="47" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="44" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="37" t="s">
+      <c r="A105" s="52" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="C49:E51"/>
-    <mergeCell ref="C52:E54"/>
-    <mergeCell ref="C55:E57"/>
-    <mergeCell ref="C44:E45"/>
-    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="C20:F21"/>
     <mergeCell ref="C35:E36"/>
@@ -1677,13 +1735,12 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="C49:E51"/>
+    <mergeCell ref="C52:E54"/>
+    <mergeCell ref="C55:E57"/>
+    <mergeCell ref="C44:E45"/>
+    <mergeCell ref="C47:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/public/format/Quotation_Template.xlsx
+++ b/public/format/Quotation_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>Reference No:</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Total Price</t>
-  </si>
-  <si>
-    <t>Choose Once:  ○ Vat Inc    ○ Vat Exe    ○ Zero-Rated</t>
   </si>
   <si>
     <r>
@@ -329,6 +326,12 @@
   </si>
   <si>
     <t>PAYMENT RELEASE DATE</t>
+  </si>
+  <si>
+    <t>○ Vat Inc    ○ Vat Exe    ○ Zero-Rated</t>
+  </si>
+  <si>
+    <t>Choose Once:</t>
   </si>
 </sst>
 </file>
@@ -576,152 +579,152 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1092,114 +1095,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="26.33203125" style="7"/>
-    <col min="6" max="6" width="26.33203125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="26.33203125" style="7"/>
+    <col min="1" max="5" width="26.33203125" style="5"/>
+    <col min="6" max="6" width="26.33203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="26.33203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1224,508 +1227,509 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="14" spans="1:7" s="8" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
+      <c r="C19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="31" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="44" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="32" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
+      <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="6" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="6" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="6" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="33" t="s">
+      <c r="C34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="45" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="33" t="s">
+      <c r="C38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="6" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="10" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="10" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="10" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="9" t="s">
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+    </row>
+    <row r="49" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
+      <c r="C49" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+    </row>
+    <row r="52" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
+      <c r="C52" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+    </row>
+    <row r="55" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="33" t="s">
+      <c r="C55" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="33" t="s">
+      <c r="C58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="10" t="s">
+    </row>
+    <row r="59" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C61" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C61" s="35" t="s">
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C63" s="24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C63" s="36" t="s">
+      <c r="E63" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C64" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="36" t="s">
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C66" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C64" s="37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C66" s="37" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C67" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C67" s="37" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C68" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C68" s="37" t="s">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C70" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C70" s="37" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C71" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C71" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C72" s="37" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="38" t="s">
+      <c r="C74" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="39" t="s">
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="38" t="s">
+      <c r="C75" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="40" t="s">
+    </row>
+    <row r="76" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="41" t="s">
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="38" t="s">
+      <c r="C78" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="39" t="s">
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C79" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C79" s="39" t="s">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C80" s="27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C80" s="39" t="s">
+    <row r="81" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="40" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="41" t="s">
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+    </row>
+    <row r="82" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-    </row>
-    <row r="82" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="41" t="s">
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C83" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="42" t="s">
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="44" t="s">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="45" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="33"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="46"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="47" t="s">
+      <c r="D90" s="35"/>
+      <c r="E90" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90" s="38"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="48"/>
-      <c r="E90" s="49" t="s">
+      <c r="E91" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F90" s="49"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="47" t="s">
+      <c r="F91" s="39"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E91" s="50" t="s">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="36"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E94" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F91" s="50"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="51"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="44" t="s">
+      <c r="F94" s="38"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="33"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E94" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F94" s="49"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="46"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="47" t="s">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="47" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="44" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="37" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="52" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="C49:E51"/>
+    <mergeCell ref="C52:E54"/>
+    <mergeCell ref="C55:E57"/>
+    <mergeCell ref="C44:E45"/>
+    <mergeCell ref="C47:E48"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="C20:F21"/>
     <mergeCell ref="C35:E36"/>
@@ -1735,12 +1739,13 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="C49:E51"/>
-    <mergeCell ref="C52:E54"/>
-    <mergeCell ref="C55:E57"/>
-    <mergeCell ref="C44:E45"/>
-    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
